--- a/book_data.xlsx
+++ b/book_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayt\Desktop\LocalLibrary\LocalLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C2400-DDB8-40B8-80DC-18AE410F3A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412C6F3-2035-491B-8E12-5826FD4F6F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Sr No.</t>
   </si>
@@ -220,14 +220,304 @@
   </si>
   <si>
     <t>GENRE</t>
+  </si>
+  <si>
+    <t>Ashwin Sanghi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The year is 340 BC. A hunted, haunted Brahmin youth vows revenge for the gruesome murder of his beloved father. Cold, calculating, cruel and armed with a complete absence of accepted morals, he becomes the most powerful political strategist in Bharat and succeeds in uniting a ragged country against the invasion of the army of that demigod, Alexander the Great. Pitting the weak edges of both forces against each other, he pulls off a wicked and astonishing victory and succeeds in installing Chandragupta on the throne of the mighty Mauryan empire. History knows him as the brilliant strategist Chanakya. Satisfied - and a little bored - by his success as a kingmaker, through the simple summoning of his gifted mind, he recedes into the shadows to write his </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arthashastra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the 'science of wealth'. But history, which exults in repreating itself, receives Chanakya two and a half millenia later, in the avatar of Gangasagar Mishra, a Brahmin teacher in snall town India who becomes puppeteer to a host of ambitious individuals - including a certain slumchild who grows up into a beautiful and powerful woman. Modern India happens to be just as riven as ancient Bharat by class hatred, corruption and divisive politics - and this landscape is Gangasagar's feasting ground. Can this wily pandit - who preys on greed, venality and sexual deviance - bring about another miracle of a united India? Will Chanakya's Chant work again?</t>
+    </r>
+  </si>
+  <si>
+    <t>978-9-38-162681-8</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Chanakya's Chant</t>
+  </si>
+  <si>
+    <t>The Lost Symbol</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT WAS LOST WILL BE FOUND. The CapitolBuilding, Washington DC: Harvard symbologist Robert Langdon believes he is here to give a lecture. He is wrong. Within minutes of his arrival, a shocking object is discovered. It is a gruesome invitation into an ancient world of hidden wisdom. When Langdon's mentor, Peter Solomon - prominent mason and philanthropist - is kidnapped, Langdon realizes that his only hope of saving his friend's life is to accept this mysterious summons. It is to take him on a breathless chase through Washington's dark history. All that was familiar is changed into a shadowy, mythical world in which masonic secrets and never-before-seen revelations seem to be leading him to a single impossible and inconceivable truth... </t>
+  </si>
+  <si>
+    <t>978-0-552-16123-7</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Florence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Harvard symbologist Robert Langdon awakes in a hospital bed with no recollection of where he is or how he got there. Nor can he explain the origin of the macabre object that is found hidden in his belongings. A threat to his life will propel him and a younger doctor, Sienna Brooks, into a breakneck chase across the city. Only Langdon's knowledge of the hidden passageways and ancient secrets that lie behind its historic facade can save them from the clutches of their unknown pursuers. With only a few lines from Dante's </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inferno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to guide them, they must decipher a sequence of codes buried deep within some of the Renaissance's most celebrated artworks to find the answers to a puzzle which may, or may not, help them save the world from a terrifying threat....</t>
+    </r>
+  </si>
+  <si>
+    <t>978-0-552-17212-7</t>
+  </si>
+  <si>
+    <t>Angels &amp; Demons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AN ANCIENT SECRET BROTHERHOOD, A DEVASTATING NEW WEAPON &amp; AN UNTHINKABLE TARGET. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CERN Institute, Switzerland</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: a world-renowned scientist is found brutally murdered with a mysterious symbol seared onto his chest. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Vatican, Rome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: the College of Cardinals assembles to elect a new pope. Somewhere beneath them, an unstoppable bomb of terrifying power relentlessly counts down to oblivion. In a breathtaking race against time, Harvard professor Robert Langdon must decipher a labyrinthine trail of ancient aymbols if he is to defeat those responsible - the Illminati - a secret brotherhood presumed extinct for nearly four hundred years, reborn to continue their deadly vendetta against their most hated enemy, the Catholic Church.</t>
+    </r>
+  </si>
+  <si>
+    <t>978-0-55-216126-8</t>
+  </si>
+  <si>
+    <t>The Da Vinci Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A QUEST ALMOST AS OLD AS TIME ITSELF, AN OBJECT THOUGHT LOST FOREVER &amp; A DEADLY RACE TO POSSESS IT. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Louvre, Paris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: the elderly curator of the museum has been violently murdered in the Grand Gallery. Harvard Professor Robert Langdon is summoned to decipher the baffling codes which the police find alongside the body. As he and a gifted French cryptologist, Sophie Neveu, sort through the bizzare riddles, they are stunned to find a trail that leads to the works of Leonardo Da Vinci - and suggests the answer to an age-old mystery that stretches deep into the vault of history. Unless Langdon and Neveu can decipher the labyrinthine code and quickly assemble the pieces of the puzzle, a stunning historical truth will be lost forever...</t>
+    </r>
+  </si>
+  <si>
+    <t>978-0-552-16127-5</t>
+  </si>
+  <si>
+    <t>The Doomsday Conspiracy</t>
+  </si>
+  <si>
+    <t>Sidney Sheldon</t>
+  </si>
+  <si>
+    <t>OPERATION DOOMSDAY … ACTIVATE … Commander Robert Bellamy of US Naval Intelligence is dispatched on a top secret mission. A weather balloon carrying sensitive military information has crashed in Switzerland. Bellamy must locate the ten witnesses to the incident so that they can be sworn to secrecy. But as he conducts his search Bellamy begins to suspect that he, too, is being hunted,and by an unknown lethal force ... that what he was told about the balloon is only one part of an almost unbelievable happening ... From Washington to Zurich, Rome and Paris, the story unfolds to reveal Bellamy's past - why the woman he loves tthe most cannot return his love, why his friends become his deadly enemies, and why the world must neevr learn the incredible secret hidden on the Swiss Alps ...</t>
+  </si>
+  <si>
+    <t>978-1-72-234831-1</t>
+  </si>
+  <si>
+    <t>The Famous Five - Five fall into Adventure</t>
+  </si>
+  <si>
+    <t>Enid Blyton</t>
+  </si>
+  <si>
+    <t>When George and Timmy go missing, Julian, Dick and Anne are frantic - what can have happened to them? Then somebody breaks into Kirrin Cottage - there must be a connection! The Famous Five are ready to solve the msytery, but can they do it without Geaorge and Timmy?</t>
+  </si>
+  <si>
+    <t>978-0-340-89462-8</t>
+  </si>
+  <si>
+    <t>The Hound of Baskervilles - Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Sir Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>978-81-88951-65-9</t>
+  </si>
+  <si>
+    <t>Revolution Twenty20</t>
+  </si>
+  <si>
+    <t>Chetan Bhagat</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LOVE . CORRUPTION . AMBITION - Once upon a time, in a small-town India, there lives two intelligent boys. One wanted to use his intelligence to make money. One wanted to use his intelligence to start a revolution. The problem was, they both loved the same girl. Welcome to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revolution 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - a story about childhood friends Gopal, Raghav and Aarti who struggle to find success, love and happiness in Varanasi. However, it is not easy to attain these in an unfair society that rewards the corrupt. As Gopal gives in to the system, Raghav fights it, who will win? Are you ready for the revolution?</t>
+    </r>
+  </si>
+  <si>
+    <t>978-81-291-3553-7</t>
+  </si>
+  <si>
+    <t>The Monk who Sold his Ferrari</t>
+  </si>
+  <si>
+    <t>Robin Sharma</t>
+  </si>
+  <si>
+    <t>WISDOM TO CREATE A LIFE OF PASSION, PURPOSE AND PEACE. This inspiring tale provides a step-by-step approach to living with greater courage, balance, abundance and joy. A wonderfully crafted fable tells the ectraordinary story of Julian Mantle, a lawyer forced to confront the spiritual crisis of his out-of-balance life. On a life-changing odyssey to an ancient culture, he discovers powerful, wise and practical lessons that teach us to develop joyful thoughts, follow our life's mission and calling, cultivate self-discipline and act courageously, value time as our most important commodity and nourish our relationships and live fully, one day at a time.</t>
+  </si>
+  <si>
+    <t>978-8-17-992162-3</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Nineteen Eighty-Four is often referred to as one of the definitive texts of modern dystopian literature. Written in 1948, the book serves as a powerful warning against totalitarian regimes and extreme political ideologies. The pitfalls of a totalitarian regime are symbolized by "Big Brother" an over arching figure that dictates the lives of the citizens of Oceania. Orwell penned this novel at a critical time in history, when a rise in totalitarian states had culminated in World War  2. This was the time of Hitler, Stalin and Mussolini. It was also the dawn of the post-atomic age, a time when countries had only just come to realize the terrible and annihilating potential of the human mind. It was this socio-political clime that became the breeding ground for Nineteen Eighty-Four. More than sixty years since it was published; Nineteen Eighty Four still remains one of the most hauntingly terrifying portrayals of the fututr of mankind. A future where everything belongs to the state and no one is free.</t>
+  </si>
+  <si>
+    <t>978-81-929109-0-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -265,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,9 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -617,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -697,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -717,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -777,7 +1072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -853,7 +1148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -905,6 +1200,203 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1984</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/book_data.xlsx
+++ b/book_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayt\Desktop\LocalLibrary\LocalLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412C6F3-2035-491B-8E12-5826FD4F6F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834EA69-10E2-4D15-8594-8EA405C79B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>Sr No.</t>
   </si>
@@ -254,9 +254,6 @@
     <t>978-9-38-162681-8</t>
   </si>
   <si>
-    <t>Thriller</t>
-  </si>
-  <si>
     <t>Chanakya's Chant</t>
   </si>
   <si>
@@ -494,6 +491,39 @@
   </si>
   <si>
     <t>978-81-929109-0-1</t>
+  </si>
+  <si>
+    <t>Thriller, Historical Fiction, Suspense</t>
+  </si>
+  <si>
+    <t>Mystery, Crime Fiction, Thriller</t>
+  </si>
+  <si>
+    <t>Mystery, Thriller, Conspiracy Fiction</t>
+  </si>
+  <si>
+    <t>Crime Fiction, Thriller, Suspense, Conspiracy Fiction</t>
+  </si>
+  <si>
+    <t>Mystery, Conspiracy Fiction, Detective Fiction, Thriller</t>
+  </si>
+  <si>
+    <t>Mystery, Fiction, Thriller</t>
+  </si>
+  <si>
+    <t>Mystery, Children's Literature</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes is intrigued by a centuries-old legend in which every generation of the wealthy Baskerville family is eventually killed by a monstrous hound. Suspecting there is more to the story than meets the eye, he sends Dr. Watson to the estate to investigate. Sir Henry, the only Baskerville left, is grateful for his help. But when a crazed convict escapes and footprints from a beast are found, Baskerville wonders if Watson will be enough.</t>
+  </si>
+  <si>
+    <t>Fiction, Politics, Romance</t>
+  </si>
+  <si>
+    <t>Fable, Fiction</t>
+  </si>
+  <si>
+    <t>Science Fiction, Alternate History, Social Science Fiction, Political Fiction, Dystopian Fiction</t>
   </si>
 </sst>
 </file>
@@ -842,7 +872,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>65</v>
@@ -1216,27 +1246,30 @@
         <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1244,17 +1277,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1262,17 +1297,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1280,17 +1317,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1298,17 +1337,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1316,33 +1357,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1350,17 +1397,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1368,17 +1417,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -1389,14 +1440,16 @@
         <v>1984</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/book_data.xlsx
+++ b/book_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayt\Desktop\LocalLibrary\LocalLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834EA69-10E2-4D15-8594-8EA405C79B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B6E28-4389-4802-B935-B5CDA5F602B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Authors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="144">
   <si>
     <t>Sr No.</t>
   </si>
@@ -525,12 +526,102 @@
   <si>
     <t>Science Fiction, Alternate History, Social Science Fiction, Political Fiction, Dystopian Fiction</t>
   </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Bhagat</t>
+  </si>
+  <si>
+    <t>Enid</t>
+  </si>
+  <si>
+    <t>Blyton</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Agatha</t>
+  </si>
+  <si>
+    <t>Christie</t>
+  </si>
+  <si>
+    <t>Sir Arthur</t>
+  </si>
+  <si>
+    <t>Conan Doyle</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Orwell</t>
+  </si>
+  <si>
+    <t>Satyajit</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Ashwin</t>
+  </si>
+  <si>
+    <t>Sanghi</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Amish</t>
+  </si>
+  <si>
+    <t>Tripathi</t>
+  </si>
+  <si>
+    <t>22 May, 1859</t>
+  </si>
+  <si>
+    <t>15 September, 1890</t>
+  </si>
+  <si>
+    <t>11 August, 1897</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +640,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -575,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -589,6 +688,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,23 +998,23 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1451,6 +1563,186 @@
       <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80068299-5EB2-47FC-911C-05BA1F374080}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6">
+        <v>27141</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="6">
+        <v>25170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6">
+        <v>23550</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="6">
+        <v>27771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="6">
+        <v>11146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1272</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7793</v>
+      </c>
+      <c r="D8" s="6">
+        <v>33717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="6">
+        <v>25228</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="6">
+        <v>23544</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6252</v>
+      </c>
+      <c r="D11" s="6">
+        <v>39112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="6">
+        <v>27320</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
